--- a/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,43 +22,67 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>010622</t>
+  </si>
+  <si>
+    <t>501075</t>
+  </si>
+  <si>
+    <t>010623</t>
+  </si>
+  <si>
+    <t>005299</t>
+  </si>
+  <si>
+    <t>005300</t>
+  </si>
+  <si>
+    <t>006401</t>
+  </si>
+  <si>
     <t>004724</t>
   </si>
   <si>
     <t>004725</t>
   </si>
   <si>
-    <t>005299</t>
-  </si>
-  <si>
-    <t>005300</t>
-  </si>
-  <si>
-    <t>006401</t>
-  </si>
-  <si>
     <t>006402</t>
   </si>
   <si>
-    <t>501075</t>
-  </si>
-  <si>
     <t>007501</t>
   </si>
   <si>
-    <t>010622</t>
-  </si>
-  <si>
-    <t>010623</t>
+    <t>恒越成长精选混合A</t>
+  </si>
+  <si>
+    <t>万家科创主题3年封闭运作灵活配置混合A</t>
+  </si>
+  <si>
+    <t>恒越成长精选混合C</t>
+  </si>
+  <si>
+    <t>万家成长优选灵活配置混合A</t>
+  </si>
+  <si>
+    <t>万家成长优选灵活配置混合C</t>
+  </si>
+  <si>
+    <t>先锋量化优选灵活配置混合A</t>
   </si>
   <si>
     <t>先锋聚元灵活配置混合A</t>
@@ -67,58 +91,88 @@
     <t>先锋聚元灵活配置混合C</t>
   </si>
   <si>
-    <t>万家成长优选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>万家成长优选灵活配置混合C</t>
-  </si>
-  <si>
-    <t>先锋量化优选灵活配置混合A</t>
-  </si>
-  <si>
     <t>先锋量化优选灵活配置混合C</t>
   </si>
   <si>
-    <t>万家科创主题3年封闭运作灵活配置混合A</t>
-  </si>
-  <si>
     <t>万家科创主题3年封闭运作灵活配置混合C</t>
   </si>
   <si>
-    <t>恒越成长精选混合A</t>
-  </si>
-  <si>
-    <t>恒越成长精选混合C</t>
+    <t>21.68</t>
+  </si>
+  <si>
+    <t>15.65</t>
+  </si>
+  <si>
+    <t>6.59</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>55.33</t>
+  </si>
+  <si>
+    <t>79.63</t>
+  </si>
+  <si>
+    <t>93.35</t>
+  </si>
+  <si>
+    <t>93.83</t>
   </si>
   <si>
     <t>92.49</t>
   </si>
   <si>
-    <t>93.35</t>
-  </si>
-  <si>
-    <t>93.83</t>
-  </si>
-  <si>
-    <t>79.63</t>
-  </si>
-  <si>
-    <t>55.33</t>
+    <t>1.69</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>3.56</t>
   </si>
   <si>
     <t>3.45</t>
   </si>
   <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>3.56</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>1.69</t>
+    <t>0.3664</t>
+  </si>
+  <si>
+    <t>0.3600</t>
+  </si>
+  <si>
+    <t>0.1114</t>
+  </si>
+  <si>
+    <t>0.0793</t>
+  </si>
+  <si>
+    <t>0.0278</t>
+  </si>
+  <si>
+    <t>0.0071</t>
+  </si>
+  <si>
+    <t>0.0017</t>
+  </si>
+  <si>
+    <t>0.0010</t>
   </si>
 </sst>
 </file>
@@ -476,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,205 +552,265 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2452,7 +2453,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>78.89</t>
@@ -2468,6 +2468,1690 @@
       </c>
       <c r="H42" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1465</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0928</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9587</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9407</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8705</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8653</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7665</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7079</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6912</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6752</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6083</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4549</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4452</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3277</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3268</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4136,7 +4137,6 @@
           <t>万家科创主题3年封闭运作灵活配置混合C</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>75.80</t>
@@ -4152,6 +4152,90 @@
       </c>
       <c r="H44" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4165,7 +4166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4176,17 +4177,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4196,14 +4217,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.55</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9750</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4212,14 +4255,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.11</v>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>138.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8383</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4228,13 +4293,1807 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6599</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3694</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2438</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1397</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1181</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8482</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8040</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7131</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6848</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6811</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6508</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5612</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5593</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3507</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3285</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6008,7 +6009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6019,17 +6020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6039,14 +6060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.97</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.3621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6055,14 +6098,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.55</v>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6071,14 +6136,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>41</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.11</v>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9863</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6087,13 +6174,985 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9330</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8568</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6972</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5031</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4177</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4057</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>65.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7051,7 +7052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7062,17 +7063,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7082,14 +7103,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.34</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.0088</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7098,14 +7141,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.97</v>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6657</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7114,14 +7179,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.55</v>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4229</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7130,14 +7217,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>41</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.11</v>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2123</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -7146,13 +7255,737 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>41</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,419 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010622</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>恒越成长精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>55.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3664</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.57</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501075</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.63</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3600</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.34</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010623</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>恒越成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>55.33</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1114</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.97</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005299</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0793</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.55</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>41</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006401</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004724</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>先锋聚元灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004725</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>先锋聚元灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006402</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.63</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -878,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -899,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -929,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008120</t>
+          <t>519674</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家自主创新混合A</t>
+          <t>银河创新成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.77</t>
+          <t>166.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0922</t>
+          <t>14.0088</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -967,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>257070</t>
+          <t>008120</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安优选行业混合</t>
+          <t>万家自主创新混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.37</t>
+          <t>30.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4422</t>
+          <t>1.6657</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1005,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001956</t>
+          <t>014143</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安科技动力股票</t>
+          <t>银河创新成长混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.71</t>
+          <t>16.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>94.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3796</t>
+          <t>1.4229</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1043,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004666</t>
+          <t>005311</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
+          <t>万家经济新动能混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.96</t>
+          <t>18.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2555</t>
+          <t>1.2123</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1081,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010611</t>
+          <t>005312</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合A</t>
+          <t>万家经济新动能混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.73</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.04</t>
+          <t>94.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2390</t>
+          <t>0.4236</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1119,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010694</t>
+          <t>008633</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家内需增长一年持有期混合</t>
+          <t>万家科技创新混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.87</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.84</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.1440</t>
+          <t>0.2581</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1157,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>040007</t>
+          <t>008121</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安中小盘成长混合</t>
+          <t>万家自主创新混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.9496</t>
+          <t>0.1425</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1195,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501075</t>
+          <t>008634</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+          <t>万家科技创新混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20.30</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>78.89</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.8952</t>
+          <t>0.0955</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1233,32 +943,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>040025</t>
+          <t>000522</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安科技动力混合</t>
+          <t>华润元大信息传媒科技混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.51</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>86.82</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5630</t>
+          <t>0.0909</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1271,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008633</t>
+          <t>013339</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家科技创新混合A</t>
+          <t>创金合信芯片产业股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4184</t>
+          <t>0.0870</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1309,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010612</t>
+          <t>013340</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合C</t>
+          <t>创金合信芯片产业股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.04</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3863</t>
+          <t>0.0352</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1347,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004616</t>
+          <t>005041</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票A</t>
+          <t>人保研究精选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>82.04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3678</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1385,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001072</t>
+          <t>004890</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华安智能装备主题股票</t>
+          <t>中邮健康文娱灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.59</t>
+          <t>84.86</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3288</t>
+          <t>0.0218</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1423,32 +1133,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005299</t>
+          <t>005844</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合A</t>
+          <t>东方人工智能主题混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>94.99</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2743</t>
+          <t>0.0217</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1461,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006122</t>
+          <t>002772</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华安低碳生活混合</t>
+          <t>光大保德信产业新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>91.58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2702</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1499,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008121</t>
+          <t>004931</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万家自主创新混合C</t>
+          <t>华润元大价值优选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2259</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1537,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>512330</t>
+          <t>004930</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南方中证500信息技术指数ETF</t>
+          <t>华润元大价值优选混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>99.36</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.2258</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1575,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>007854</t>
+          <t>009882</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>光大保德信景气先锋混合</t>
+          <t>华润元大核心动力混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>79.06</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1835</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1613,36 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008634</t>
+          <t>009883</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>万家科技创新混合C</t>
+          <t>华润元大核心动力混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1770</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1651,827 +1361,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008635</t>
+          <t>005042</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华安科技创新混合</t>
+          <t>人保研究精选混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>82.04</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1685</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005412</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1675</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>501099</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>平安科技创新3年封闭运作灵活配置混合型</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1171</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>88.55</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1136</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005763</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中欧电子信息产业沪港深股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1118</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005413</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1031</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006281</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>万家人工智能混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0945</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006233</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0892</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001255</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>长城改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.90</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0862</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>161722</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>招商丰泰灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>30.89</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0558</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006132</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>万家智造优势混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0479</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>200001</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>长城久恒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0349</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>006234</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004135</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>申万菱信量化成长混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>90.08</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>002179</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华安事件驱动量化策略混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>165522</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>信诚中证TMT产业主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>006133</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>万家智造优势混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001829</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>北信瑞丰中国智造主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>004546</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>56.52</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006992</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>嘉合锦创优势精选混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>80.89</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>515590</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>前海开源中证500等权重ETF</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>78.89</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2485,7 +1404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2506,7 +1425,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2536,36 +1455,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010694</t>
+          <t>519674</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家内需增长一年持有期混合</t>
+          <t>银河创新成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.10</t>
+          <t>171.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>88.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1465</t>
+          <t>12.3621</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2574,36 +1493,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>005311</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>万家经济新动能混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.26</t>
+          <t>19.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.70</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0928</t>
+          <t>1.2013</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2612,32 +1531,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004666</t>
+          <t>470009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
+          <t>汇添富民营活力混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.38</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.34</t>
+          <t>88.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0071</t>
+          <t>0.9863</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2650,36 +1569,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009683</t>
+          <t>000697</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富创新增长一年定期开放混合A</t>
+          <t>汇添富移动互联股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.79</t>
+          <t>24.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>97.19</t>
+          <t>83.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9587</t>
+          <t>0.9330</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2688,36 +1607,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010611</t>
+          <t>007355</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合A</t>
+          <t>汇添富科技创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.85</t>
+          <t>16.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>85.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9407</t>
+          <t>0.8568</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2726,36 +1645,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>257070</t>
+          <t>009683</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国联安优选行业混合</t>
+          <t>汇添富创新增长一年定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.58</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>71.21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8705</t>
+          <t>0.6972</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2764,36 +1683,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011665</t>
+          <t>009715</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>11.81</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30.18</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8653</t>
+          <t>0.5031</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2802,36 +1721,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501075</t>
+          <t>005312</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+          <t>万家经济新动能混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20.44</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>75.80</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7665</t>
+          <t>0.4177</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2840,36 +1759,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005299</t>
+          <t>001702</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合A</t>
+          <t>东方创新科技混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19.08</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.7079</t>
+          <t>0.4057</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2878,36 +1797,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009715</t>
+          <t>008633</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+          <t>万家科技创新混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.37</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.6912</t>
+          <t>0.2460</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2916,36 +1835,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004616</t>
+          <t>007356</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票A</t>
+          <t>汇添富科技创新灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12.91</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>85.87</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.6752</t>
+          <t>0.1285</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2954,36 +1873,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001956</t>
+          <t>007854</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国联安科技动力股票</t>
+          <t>光大保德信景气先锋混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>72.20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.6083</t>
+          <t>0.1059</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -2992,36 +1911,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>020003</t>
+          <t>013339</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国泰金龙行业混合</t>
+          <t>创金合信芯片产业股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>78.83</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.4549</t>
+          <t>0.1029</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -3030,36 +1949,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160212</t>
+          <t>000522</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国泰估值优势混合 (LOF)</t>
+          <t>华润元大信息传媒科技混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>70.63</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.4452</t>
+          <t>0.0900</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -3068,36 +1987,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003516</t>
+          <t>008634</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰融安多策略灵活配置混合</t>
+          <t>万家科技创新混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15.58</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.45</t>
+          <t>93.27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.4316</t>
+          <t>0.0774</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -3106,36 +2025,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010612</t>
+          <t>009684</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万家战略发展产业混合C</t>
+          <t>汇添富创新增长一年定期开放混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>71.21</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.3520</t>
+          <t>0.0724</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -3144,36 +2063,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008633</t>
+          <t>013340</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>万家科技创新混合A</t>
+          <t>创金合信芯片产业股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.3277</t>
+          <t>0.0418</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -3182,36 +2101,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>160211</t>
+          <t>004890</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国泰中小盘成长混合(LOF)</t>
+          <t>中邮健康文娱灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>81.43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.3268</t>
+          <t>0.0214</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -3220,36 +2139,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005300</t>
+          <t>002772</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合C</t>
+          <t>光大保德信产业新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>90.63</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.2998</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -3258,36 +2177,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005763</t>
+          <t>004930</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中欧电子信息产业沪港深股票C</t>
+          <t>华润元大价值优选混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>65.19</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.2866</t>
+          <t>0.0205</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3296,36 +2215,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007356</t>
+          <t>009882</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合C</t>
+          <t>华润元大核心动力混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.70</t>
+          <t>68.63</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1748</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -3334,36 +2253,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008634</t>
+          <t>011377</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>万家科技创新混合C</t>
+          <t>创金合信积极成长股票A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1474</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -3372,36 +2291,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>000522</t>
+          <t>004931</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华润元大信息传媒科技混合</t>
+          <t>华润元大价值优选混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>67.42</t>
+          <t>65.19</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.1375</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -3410,36 +2329,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007854</t>
+          <t>009883</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>光大保德信景气先锋混合</t>
+          <t>华润元大核心动力混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>74.57</t>
+          <t>68.63</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.1249</t>
+          <t>0.0054</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -3448,36 +2367,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>011378</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>创金合信积极成长股票C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.1018</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -3486,675 +2405,34 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009684</t>
+          <t>960014</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>汇添富创新增长一年定期开放混合C</t>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>97.19</t>
+          <t>88.81</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0999</t>
-        </is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>020023</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国泰事件驱动策略混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>85.74</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0989</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006132</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>万家智造优势混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0920</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>011599</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国联安匠心科技1个月滚动持有混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0857</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002772</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0673</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>011666</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>30.18</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0366</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>006234</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0357</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>005434</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>鹏华睿投灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>37.00</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0352</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>65.96</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006133</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>万家智造优势混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>011377</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>创金合信积极成长股票A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>165522</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>信诚中证TMT产业主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>65.96</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>011378</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>创金合信积极成长股票C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>512350</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>兴业中证福建50ETF</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>96.36</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>004790</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>004791</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>007501</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>万家科创主题3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>75.80</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6010,7 +4288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6031,7 +4309,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -6061,36 +4339,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519674</t>
+          <t>010694</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河创新成长混合</t>
+          <t>万家内需增长一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>171.22</t>
+          <t>28.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.98</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12.3621</t>
+          <t>1.1465</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6099,36 +4377,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005311</t>
+          <t>007355</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家经济新动能混合A</t>
+          <t>汇添富科技创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.47</t>
+          <t>21.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>84.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2013</t>
+          <t>1.0928</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6137,32 +4415,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>470009</t>
+          <t>004666</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富民营活力混合A</t>
+          <t>长城久嘉创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>22.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>89.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9863</t>
+          <t>1.0071</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -6175,36 +4453,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000697</t>
+          <t>009683</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富移动互联股票</t>
+          <t>汇添富创新增长一年定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>23.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.18</t>
+          <t>97.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9330</t>
+          <t>0.9587</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -6213,36 +4491,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>010611</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>万家战略发展产业混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16.80</t>
+          <t>17.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.87</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8568</t>
+          <t>0.9407</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -6251,36 +4529,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009683</t>
+          <t>257070</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富创新增长一年定期开放混合A</t>
+          <t>国联安优选行业混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18.11</t>
+          <t>13.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>71.21</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6972</t>
+          <t>0.8705</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -6289,36 +4567,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009715</t>
+          <t>011665</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.81</t>
+          <t>86.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.41</t>
+          <t>30.18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5031</t>
+          <t>0.8653</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -6327,36 +4605,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005312</t>
+          <t>501075</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家经济新动能混合C</t>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>20.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>75.80</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4177</t>
+          <t>0.7665</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -6365,36 +4643,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001702</t>
+          <t>005299</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方创新科技混合</t>
+          <t>万家成长优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4057</t>
+          <t>0.7079</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -6403,36 +4681,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008633</t>
+          <t>009715</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家科技创新混合A</t>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>13.37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2460</t>
+          <t>0.6912</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -6441,36 +4719,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007356</t>
+          <t>004616</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合C</t>
+          <t>中欧电子信息产业沪港深股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>12.91</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.87</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1285</t>
+          <t>0.6752</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -6479,36 +4757,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007854</t>
+          <t>001956</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>光大保德信景气先锋混合</t>
+          <t>国联安科技动力股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>72.20</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1059</t>
+          <t>0.6083</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -6517,36 +4795,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>013339</t>
+          <t>020003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创金合信芯片产业股票A</t>
+          <t>国泰金龙行业混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>78.83</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1029</t>
+          <t>0.4549</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -6555,36 +4833,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000522</t>
+          <t>160212</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华润元大信息传媒科技混合</t>
+          <t>国泰估值优势混合 (LOF)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>70.63</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0900</t>
+          <t>0.4452</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -6593,36 +4871,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008634</t>
+          <t>003516</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>万家科技创新混合C</t>
+          <t>国泰融安多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>15.58</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>90.45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0774</t>
+          <t>0.4316</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -6631,36 +4909,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009684</t>
+          <t>010612</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>汇添富创新增长一年定期开放混合C</t>
+          <t>万家战略发展产业混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>71.21</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0724</t>
+          <t>0.3520</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -6669,36 +4947,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>013340</t>
+          <t>008633</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>创金合信芯片产业股票C</t>
+          <t>万家科技创新混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0418</t>
+          <t>0.3277</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -6707,36 +4985,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004890</t>
+          <t>160211</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中邮健康文娱灵活配置混合</t>
+          <t>国泰中小盘成长混合(LOF)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>81.43</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.3268</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -6745,36 +5023,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002772</t>
+          <t>005300</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
+          <t>万家成长优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0208</t>
+          <t>0.2998</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -6783,36 +5061,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>004930</t>
+          <t>005763</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合A</t>
+          <t>中欧电子信息产业沪港深股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>65.19</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0205</t>
+          <t>0.2866</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -6821,36 +5099,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009882</t>
+          <t>007356</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合A</t>
+          <t>汇添富科技创新灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>68.63</t>
+          <t>84.70</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.1748</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -6859,36 +5137,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011377</t>
+          <t>008634</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>创金合信积极成长股票A</t>
+          <t>万家科技创新混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.1474</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -6897,36 +5175,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>004931</t>
+          <t>000522</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合C</t>
+          <t>华润元大信息传媒科技混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>65.19</t>
+          <t>67.42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.1375</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -6935,36 +5213,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009883</t>
+          <t>007854</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合C</t>
+          <t>光大保德信景气先锋混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>68.63</t>
+          <t>74.57</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.1249</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -6973,36 +5251,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011378</t>
+          <t>006233</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>创金合信积极成长股票C</t>
+          <t>万家汽车新趋势混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.1018</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -7011,34 +5289,675 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>960014</t>
+          <t>009684</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>汇添富民营活力混合型证券投资基金 O</t>
+          <t>汇添富创新增长一年定期开放混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>97.19</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
       </c>
       <c r="H27" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7052,7 +5971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7073,7 +5992,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -7103,36 +6022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519674</t>
+          <t>008120</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河创新成长混合</t>
+          <t>万家自主创新混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>166.97</t>
+          <t>36.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14.0088</t>
+          <t>2.0922</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -7141,36 +6060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008120</t>
+          <t>257070</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家自主创新混合A</t>
+          <t>国联安优选行业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.62</t>
+          <t>16.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.6657</t>
+          <t>1.4422</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7179,36 +6098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014143</t>
+          <t>001956</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河创新成长混合C</t>
+          <t>国联安科技动力股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.96</t>
+          <t>17.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4229</t>
+          <t>1.3796</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -7217,36 +6136,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005311</t>
+          <t>004666</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家经济新动能混合A</t>
+          <t>长城久嘉创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.23</t>
+          <t>23.96</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>94.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2123</t>
+          <t>1.2555</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7255,36 +6174,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005312</t>
+          <t>010611</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>万家经济新动能混合C</t>
+          <t>万家战略发展产业混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>24.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>92.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4236</t>
+          <t>1.2390</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -7293,36 +6212,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008633</t>
+          <t>010694</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家科技创新混合A</t>
+          <t>万家内需增长一年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>24.87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>81.84</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2581</t>
+          <t>1.1440</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -7331,36 +6250,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008121</t>
+          <t>040007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家自主创新混合C</t>
+          <t>华安中小盘成长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>90.58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1425</t>
+          <t>0.9496</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -7369,36 +6288,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008634</t>
+          <t>501075</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家科技创新混合C</t>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>20.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>78.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0955</t>
+          <t>0.8952</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -7407,32 +6326,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000522</t>
+          <t>040025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华润元大信息传媒科技混合</t>
+          <t>华安科技动力混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.82</t>
+          <t>91.33</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0909</t>
+          <t>0.5630</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -7445,36 +6364,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>013339</t>
+          <t>008633</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信芯片产业股票A</t>
+          <t>万家科技创新混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0870</t>
+          <t>0.4184</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -7483,36 +6402,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013340</t>
+          <t>010612</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信芯片产业股票C</t>
+          <t>万家战略发展产业混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>92.04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0352</t>
+          <t>0.3863</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -7521,36 +6440,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005041</t>
+          <t>004616</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>人保研究精选混合A</t>
+          <t>中欧电子信息产业沪港深股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82.04</t>
+          <t>92.21</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0279</t>
+          <t>0.3678</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -7559,36 +6478,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004890</t>
+          <t>001072</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中邮健康文娱灵活配置混合</t>
+          <t>华安智能装备主题股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>84.86</t>
+          <t>88.59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0218</t>
+          <t>0.3288</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -7597,32 +6516,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005844</t>
+          <t>005299</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东方人工智能主题混合</t>
+          <t>万家成长优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>88.55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.2743</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -7635,36 +6554,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002772</t>
+          <t>006122</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
+          <t>华安低碳生活混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.58</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0188</t>
+          <t>0.2702</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -7673,36 +6592,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004931</t>
+          <t>008121</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合C</t>
+          <t>万家自主创新混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.2259</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -7711,36 +6630,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004930</t>
+          <t>512330</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合A</t>
+          <t>南方中证500信息技术指数ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>99.36</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.2258</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -7749,36 +6668,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009882</t>
+          <t>007854</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合A</t>
+          <t>光大保德信景气先锋混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>79.06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.1835</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -7787,36 +6706,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009883</t>
+          <t>008634</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合C</t>
+          <t>万家科技创新混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0054</t>
+          <t>0.1770</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -7825,36 +6744,827 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005042</t>
+          <t>008635</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>人保研究精选混合C</t>
+          <t>华安科技创新混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>82.04</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>1.99</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002179</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安事件驱动量化策略混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7868,128 +7578,418 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.57</v>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>55.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3664</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.34</v>
+          <t>501075</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.97</v>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>55.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.55</v>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>41</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15.11</v>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.95</v>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007501</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家科创主题3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>19.57</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>19.34</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>30.97</v>
+        <v>19.34</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>14.55</v>
+        <v>30.97</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
-        <v>15.11</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>41</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -583,6 +600,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.3538</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6180</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1398,7 +1851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2440,7 +2893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4282,7 +4735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5965,7 +6418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7572,7 +8025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603893-瑞芯微.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>13.35</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>19.57</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>19.34</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>30.97</v>
+        <v>19.34</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>14.55</v>
+        <v>30.97</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>15.11</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>41</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.95</v>
       </c>
     </row>
@@ -600,6 +617,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.5837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7563</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016105</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信兴乐优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信兴乐优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>54.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +1602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1851,7 +2418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2893,7 +3460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4735,7 +5302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6418,7 +6985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8025,7 +8592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
